--- a/GGFPortal/VN/Temp/Excel/Sample車縫.xlsx
+++ b/GGFPortal/VN/Temp/Excel/Sample車縫.xlsx
@@ -77,131 +77,120 @@
     <t>.宁平各部門產量報表 Báo Biểu Sản Lượng Trong Ngày Của Các Bộ Phận</t>
   </si>
   <si>
-    <t>部門</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">客户 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>款號</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單數量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 组生产量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單交期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上線日期  </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1人8H標準產量 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際工作人數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工時</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>總工時</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日目標產量 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日產量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>前一天</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 累計量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>正負數量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">組各別效率    </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">組效率    </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>返修率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>部門
+Bộ Phận</t>
+  </si>
+  <si>
+    <t>客户 
+Khách Hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">款號
+Mã Hàng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訂單數量
+SL đơn hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 组生产量
+sản lượng tổ</t>
+  </si>
+  <si>
+    <t>訂單交期
+Ngày giao hàng</t>
+  </si>
+  <si>
+    <t>上線日期  
+Ngày
+lên chuyền</t>
+  </si>
+  <si>
+    <t>1人8H標準產量 
+M.tiêu 1ng/8H</t>
+  </si>
+  <si>
+    <t>實際工作人數
+Số cn  làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工時
+Thời gian
+ làm việc </t>
+  </si>
+  <si>
+    <t>總工時
+tổng thời gian làm việc của cả tổ</t>
+  </si>
+  <si>
+    <t>百分比
+phần trăm</t>
+  </si>
+  <si>
+    <t>今日目標產量 
+SL Mụ tiêu ngày</t>
+  </si>
+  <si>
+    <t>今日產量
+Sản Lượng Ngày</t>
+  </si>
+  <si>
+    <t>前一天
+Tích luỹ trước 1 ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 累計量
+Sản lượng tích luỹ</t>
+  </si>
+  <si>
+    <t>正負數量
+Sản lượng  tích luỹ</t>
+  </si>
+  <si>
+    <t>組各別效率    
+hiệu quả của 1 mã hàng trong tổ</t>
+  </si>
+  <si>
+    <t>組效率    
+Tỉ Lệ Hiệu Suất %</t>
+  </si>
+  <si>
+    <t>返修率
+Tỉ lệ hàng sửa</t>
   </si>
   <si>
     <t xml:space="preserve">责任归属及上线天数 (文字備註)                             </t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>顏色</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日各組成本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日生產成本/DZ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工繳收入/DZ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日工繳收入/DZ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日生產損益 USD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CM-COST)/CM 損 益 %</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日各組成本
+giá thành các tổ </t>
+  </si>
+  <si>
+    <t>今日生產成本/DZ 
+giá thành SP/DZ</t>
+  </si>
+  <si>
+    <t>工繳收入/DZ
+Đơn giá bán/DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日工繳收入/DZ 
+Doanh thu </t>
+  </si>
+  <si>
+    <t>今日生產損益 USD
+USD Lãi,lỗ</t>
+  </si>
+  <si>
+    <t>(CM-COST)/CM 損 益 %
+lãi lỗ</t>
   </si>
   <si>
     <t>損益累積</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -216,7 +205,7 @@
     <numFmt numFmtId="179" formatCode="\+0_ ;[Red]\-0"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,12 +285,6 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -371,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,7 +369,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,6 +412,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,13 +704,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75">
+    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -753,7 +742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
@@ -779,8 +768,8 @@
       <c r="U2" s="20"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:29" s="6" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -814,58 +803,58 @@
         <v>13</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/GGFPortal/VN/Temp/Excel/Sample車縫.xlsx
+++ b/GGFPortal/VN/Temp/Excel/Sample車縫.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <r>
       <t xml:space="preserve">GREAT  GLOBAL INTERNATIONAL CO.,LTD </t>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>損益累積</t>
+  </si>
+  <si>
+    <t>QC檢驗數量 Tổng hàng kiểm</t>
+  </si>
+  <si>
+    <t>瑕疵數 hàng lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上線天數 Số ngày lên </t>
   </si>
 </sst>
 </file>
@@ -408,13 +417,13 @@
     <xf numFmtId="180" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -702,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -713,63 +722,63 @@
     <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:32" s="3" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="1"/>
       <c r="W1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:32" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:32" s="6" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -855,6 +864,15 @@
       </c>
       <c r="AC3" s="15" t="s">
         <v>31</v>
+      </c>
+      <c r="AD3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/GGFPortal/VN/Temp/Excel/Sample車縫.xlsx
+++ b/GGFPortal/VN/Temp/Excel/Sample車縫.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <r>
       <t xml:space="preserve">GREAT  GLOBAL INTERNATIONAL CO.,LTD </t>
@@ -193,13 +193,17 @@
     <t>損益累積</t>
   </si>
   <si>
+    <t>瑕疵數 hàng lỗi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">上線天數 Số ngày lên </t>
+  </si>
+  <si>
     <t>QC檢驗數量 Tổng hàng kiểm</t>
-  </si>
-  <si>
-    <t>瑕疵數 hàng lỗi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上線天數 Số ngày lên </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新舊瑕疵率判定</t>
   </si>
 </sst>
 </file>
@@ -214,7 +218,7 @@
     <numFmt numFmtId="179" formatCode="\+0_ ;[Red]\-0"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,18 +715,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3:AF3"/>
+      <selection activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="36.75">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -751,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="26.25" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
@@ -777,7 +781,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:32" s="6" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="6" customFormat="1" ht="107.25" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
@@ -866,13 +870,16 @@
         <v>31</v>
       </c>
       <c r="AD3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AF3" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="15" t="s">
-        <v>34</v>
+      <c r="AG3" s="15" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -882,5 +889,6 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>